--- a/MaleRoadStd2015.xlsx
+++ b/MaleRoadStd2015.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan Jones\Documents\AgeGrade\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08935646-22D3-4512-B2B3-E63EF5A3BC5A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18195" windowHeight="12075" activeTab="2"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="22515" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AgeStdFactors" sheetId="1" r:id="rId1"/>
@@ -93,9 +99,6 @@
     <t>Compiled by Alan Jones, 3717 Wildwood Drive, Endwell, NY 13760, 607-786-5866</t>
   </si>
   <si>
-    <t>AlanLJones@stny.rr.com, http://runscore.com/Alan/AgeGrade.html</t>
-  </si>
-  <si>
     <t>Male Road Age Factors WMA and USATF, 2015*</t>
   </si>
   <si>
@@ -116,11 +119,14 @@
   <si>
     <t>Running Age-Grade Tables are licensed under a Creative Commons Attribution 4.0 International License: http://creativecommons.org/licenses/by/4.0/</t>
   </si>
+  <si>
+    <t>AlanJones@runscore.com, http://runscore.com/Alan/AgeGrade.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss"/>
@@ -557,6 +563,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -604,7 +613,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -637,9 +646,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -672,6 +698,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -847,18 +890,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U107"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7383,7 +7426,7 @@
     </row>
     <row r="102" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
@@ -7433,7 +7476,7 @@
     </row>
     <row r="104" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -7458,17 +7501,17 @@
     </row>
     <row r="105" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -7478,7 +7521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U100"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
@@ -7489,7 +7532,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -13954,18 +13997,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="J85" workbookViewId="0">
+      <selection activeCell="W78" sqref="W78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -19249,9 +19292,7 @@
       <c r="T82" s="23">
         <v>0.7728356481481482</v>
       </c>
-      <c r="U82" s="39">
-        <v>1.0239814814814814</v>
-      </c>
+      <c r="U82" s="39"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
@@ -19314,9 +19355,7 @@
       <c r="T83" s="23">
         <v>0.79494212962962962</v>
       </c>
-      <c r="U83" s="39">
-        <v>1.053275462962963</v>
-      </c>
+      <c r="U83" s="39"/>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
@@ -19379,9 +19418,7 @@
       <c r="T84" s="23">
         <v>0.81923611111111116</v>
       </c>
-      <c r="U84" s="39">
-        <v>1.0854513888888888</v>
-      </c>
+      <c r="U84" s="39"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
@@ -19444,9 +19481,7 @@
       <c r="T85" s="24">
         <v>0.84613425925925922</v>
       </c>
-      <c r="U85" s="40">
-        <v>1.1210995370370371</v>
-      </c>
+      <c r="U85" s="40"/>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
@@ -19509,9 +19544,7 @@
       <c r="T86" s="23">
         <v>0.87603009259259257</v>
       </c>
-      <c r="U86" s="39">
-        <v>1.1607060185185185</v>
-      </c>
+      <c r="U86" s="39"/>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
@@ -19574,9 +19607,7 @@
       <c r="T87" s="23">
         <v>0.90953703703703703</v>
       </c>
-      <c r="U87" s="39">
-        <v>1.2051041666666666</v>
-      </c>
+      <c r="U87" s="39"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
@@ -19639,9 +19670,7 @@
       <c r="T88" s="23">
         <v>0.94688657407407406</v>
       </c>
-      <c r="U88" s="39">
-        <v>1.2545949074074074</v>
-      </c>
+      <c r="U88" s="39"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
@@ -19764,9 +19793,7 @@
       <c r="S90" s="24">
         <v>0.94434027777777774</v>
       </c>
-      <c r="T90" s="24">
-        <v>1.036701388888889</v>
-      </c>
+      <c r="T90" s="24"/>
       <c r="U90" s="40"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
@@ -19885,9 +19912,7 @@
       <c r="R92" s="23">
         <v>0.61805555555555558</v>
       </c>
-      <c r="S92" s="23">
-        <v>1.0503472222222223</v>
-      </c>
+      <c r="S92" s="23"/>
       <c r="T92" s="23"/>
       <c r="U92" s="39"/>
     </row>
@@ -19946,9 +19971,7 @@
       <c r="R93" s="23">
         <v>0.65680555555555553</v>
       </c>
-      <c r="S93" s="23">
-        <v>1.1162037037037038</v>
-      </c>
+      <c r="S93" s="23"/>
       <c r="T93" s="23"/>
       <c r="U93" s="39"/>
     </row>
@@ -20007,9 +20030,7 @@
       <c r="R94" s="23">
         <v>0.70193287037037033</v>
       </c>
-      <c r="S94" s="23">
-        <v>1.1928935185185185</v>
-      </c>
+      <c r="S94" s="23"/>
       <c r="T94" s="23"/>
       <c r="U94" s="39"/>
     </row>
@@ -20068,9 +20089,7 @@
       <c r="R95" s="24">
         <v>0.75533564814814813</v>
       </c>
-      <c r="S95" s="24">
-        <v>1.2836458333333334</v>
-      </c>
+      <c r="S95" s="24"/>
       <c r="T95" s="24"/>
       <c r="U95" s="40"/>
     </row>
@@ -20129,9 +20148,7 @@
       <c r="R96" s="23">
         <v>0.81943287037037038</v>
       </c>
-      <c r="S96" s="23">
-        <v>1.3925694444444445</v>
-      </c>
+      <c r="S96" s="23"/>
       <c r="T96" s="23"/>
       <c r="U96" s="39"/>
     </row>
@@ -20190,9 +20207,7 @@
       <c r="R97" s="23">
         <v>0.89800925925925923</v>
       </c>
-      <c r="S97" s="23">
-        <v>1.5261111111111112</v>
-      </c>
+      <c r="S97" s="23"/>
       <c r="T97" s="23"/>
       <c r="U97" s="39"/>
     </row>
@@ -20307,9 +20322,7 @@
       <c r="Q99" s="23">
         <v>0.84365740740740736</v>
       </c>
-      <c r="R99" s="23">
-        <v>1.1206828703703704</v>
-      </c>
+      <c r="R99" s="23"/>
       <c r="S99" s="23"/>
       <c r="T99" s="23"/>
       <c r="U99" s="39"/>
